--- a/used_resources/CreateAccount.xlsx
+++ b/used_resources/CreateAccount.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="13500" windowHeight="4815"/>
@@ -16,45 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Data#</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Elkomy</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>msolimanpl219486@gmail.com</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>@3wweert</t>
+    <t>username</t>
   </si>
   <si>
-    <t>confirmpassword</t>
-  </si>
-  <si>
-    <t>emailpassword</t>
-  </si>
-  <si>
-    <t>@3Wad1555</t>
+    <t>testrcm</t>
   </si>
 </sst>
 </file>
@@ -431,7 +404,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,46 +434,21 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1998888806</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
@@ -551,11 +499,8 @@
       <c r="D18" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
